--- a/MakeAGame/LubanTool/GameConfig/Datas/Feature.xlsx
+++ b/MakeAGame/LubanTool/GameConfig/Datas/Feature.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>##var</t>
   </si>
@@ -302,6 +302,24 @@
   </si>
   <si>
     <t>该卡牌在场时，玩家放入的棋子获得1*技巧秒无敌。</t>
+  </si>
+  <si>
+    <t>亲和力</t>
+  </si>
+  <si>
+    <t>距离不大于6的友军每3秒回复1*精神点生命值。</t>
+  </si>
+  <si>
+    <t>我爱疯子</t>
+  </si>
+  <si>
+    <t>该卡牌在场时，玩家放入的棋子获得10%精神的移动速度加成。</t>
+  </si>
+  <si>
+    <t>藤蔓</t>
+  </si>
+  <si>
+    <t>被攻击到的敌人移动速度减半，持续3秒。</t>
   </si>
 </sst>
 </file>
@@ -343,7 +361,7 @@
       <name val="等线"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +371,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -446,7 +470,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -525,6 +549,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,6 +578,7 @@
       <rgbColor rgb="ffbd6427"/>
       <rgbColor rgb="ff9c0006"/>
       <rgbColor rgb="ff006100"/>
+      <rgbColor rgb="ffffdf7f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1609,7 +1640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2802,14 +2833,14 @@
     </row>
     <row r="28" ht="13.8" customHeight="1">
       <c r="A28" s="9"/>
-      <c r="B28" s="8">
+      <c r="B28" s="26">
         <v>25</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="27">
         <v>86</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -3044,6 +3075,164 @@
       <c r="AF33" s="11"/>
       <c r="AG33" s="11"/>
     </row>
+    <row r="34" ht="13.8" customHeight="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+    </row>
+    <row r="35" ht="13.8" customHeight="1">
+      <c r="A35" s="9"/>
+      <c r="B35" s="8">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+    </row>
+    <row r="36" ht="13.8" customHeight="1">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+    </row>
+    <row r="37" ht="13.8" customHeight="1">
+      <c r="A37" s="9"/>
+      <c r="B37" s="8">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/MakeAGame/LubanTool/GameConfig/Datas/Feature.xlsx
+++ b/MakeAGame/LubanTool/GameConfig/Datas/Feature.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>##var</t>
   </si>
@@ -316,10 +316,22 @@
     <t>该卡牌在场时，玩家放入的棋子获得10%精神的移动速度加成。</t>
   </si>
   <si>
+    <t>洞察</t>
+  </si>
+  <si>
+    <t>经过的格子在接下来的20秒任何伪装失效(包括隐身)，并且时间流逝速率修正为正常。</t>
+  </si>
+  <si>
     <t>藤蔓</t>
   </si>
   <si>
     <t>被攻击到的敌人移动速度减半，持续3秒。</t>
+  </si>
+  <si>
+    <t>水疗</t>
+  </si>
+  <si>
+    <t>为距离为3的友军每3秒回复10点生命值，如果该距离内有水，每3秒则回复20点。</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3159,9 +3171,15 @@
     </row>
     <row r="36" ht="13.8" customHeight="1">
       <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="B36" s="8">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -3198,10 +3216,10 @@
         <v>34</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="11"/>
@@ -3233,6 +3251,47 @@
       <c r="AF37" s="11"/>
       <c r="AG37" s="11"/>
     </row>
+    <row r="38" ht="13.8" customHeight="1">
+      <c r="A38" s="9"/>
+      <c r="B38" s="8">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
